--- a/ShowbizStudio_Scripts/Data/MasterLookup.xlsx
+++ b/ShowbizStudio_Scripts/Data/MasterLookup.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssasidhar\source\repos\ShowbizStudio_Scripts\ShowbizStudio_Scripts\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssasidhar\source\repos\MyCode_Scripts\ShowbizStudio_Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7305BDA-62C5-4015-AB57-1B94681E0048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC84817-4685-4CE4-8AD4-36E4F61C83B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SelectTalentAgency" sheetId="2" r:id="rId2"/>
     <sheet name="SearchAgency" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Module</t>
   </si>
@@ -57,6 +58,24 @@
   </si>
   <si>
     <t>ABATTOIR PETCARE</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Oberman</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
 </sst>
 </file>
@@ -439,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25DC1C-6DBE-4F53-8466-4AC31B09C08D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -484,4 +503,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DDD6C-7BB0-4B32-91D2-D43B678E082C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>